--- a/1. hasil penelitian dengan random state/Hasil penelitian BOPTN.xlsx
+++ b/1. hasil penelitian dengan random state/Hasil penelitian BOPTN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-hotspot-v2\1. hasil penelitian dengan random state\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2AAC35-9014-4578-AE11-86D5151A38BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52BFA8E-791C-4CF2-8E53-F914027CA0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hasil Penelitian" sheetId="1" r:id="rId1"/>
@@ -91,16 +91,16 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -197,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -221,80 +221,71 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,98 +592,100 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A2:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="13.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="13.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="13.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="13.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="28" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-    </row>
-    <row r="3" spans="1:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="28" t="s">
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
+      <c r="B3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="28" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-    </row>
-    <row r="4" spans="1:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="16" t="s">
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
+      <c r="B4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="20">
         <v>0.64880000000000004</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="20">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="20">
         <v>9.5299999999999996E-2</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="20">
         <v>5.6800000000000003E-2</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="21">
         <v>0.65010000000000001</v>
       </c>
@@ -706,122 +699,122 @@
         <v>5.7700000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="17">
         <v>0.77569999999999995</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="17">
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="17">
         <f>SQRT(0.0064)</f>
         <v>0.08</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="17">
         <f>4.6531/100</f>
         <v>4.6531000000000003E-2</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="16">
+      <c r="F6" s="19"/>
+      <c r="G6" s="17">
         <v>0.81530000000000002</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="17">
         <v>2.3E-2</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="17">
         <f>SQRT(0.0053)</f>
         <v>7.2801098892805186E-2</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="17">
         <f>3.8508/100</f>
         <v>3.8508000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-    </row>
-    <row r="8" spans="1:10" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="28"/>
+    </row>
+    <row r="8" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="28" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-    </row>
-    <row r="9" spans="1:10" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="28" t="s">
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
+      <c r="B9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="28" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-    </row>
-    <row r="10" spans="1:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="16" t="s">
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="19">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="C11" s="19">
+      <c r="B11" s="20">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="C11" s="20">
         <v>1.4E-3</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="20">
         <v>1.8E-3</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="20">
         <v>1.5E-3</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="21">
         <v>0.99990000000000001</v>
       </c>
@@ -835,48 +828,48 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="17">
         <v>1</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="17">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="17">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="17">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="16">
+      <c r="F12" s="19"/>
+      <c r="G12" s="17">
         <v>1</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="17">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="17">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="17">
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="G9:J9"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -889,8 +882,8 @@
   </sheetPr>
   <dimension ref="A5:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -910,33 +903,33 @@
       <c r="A5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="31" t="s">
+      <c r="Q5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
@@ -1217,58 +1210,58 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="32">
+      <c r="A11" s="9">
         <v>5</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="10">
         <v>0.6452</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="10">
         <v>3.4099999999999998E-2</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="10">
         <v>9.5600000000000004E-2</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="10">
         <v>5.6800000000000003E-2</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="H11" s="33">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H11" s="10">
         <v>1.4E-3</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="10">
         <v>1.9E-3</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="10">
         <v>1.5E-3</v>
       </c>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33">
+      <c r="K11" s="10"/>
+      <c r="L11" s="10">
         <v>0.64490000000000003</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="10">
         <v>3.5700000000000003E-2</v>
       </c>
-      <c r="N11" s="33">
+      <c r="N11" s="10">
         <v>9.8599999999999993E-2</v>
       </c>
-      <c r="O11" s="33">
+      <c r="O11" s="10">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="R11" s="33">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R11" s="10">
         <v>1.5E-3</v>
       </c>
-      <c r="S11" s="33">
+      <c r="S11" s="10">
         <v>2E-3</v>
       </c>
-      <c r="T11" s="33">
+      <c r="T11" s="10">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
@@ -1292,7 +1285,7 @@
   <dimension ref="A5:T16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1311,33 +1304,33 @@
       <c r="A5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="31" t="s">
+      <c r="Q5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
@@ -1618,58 +1611,58 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="32">
+      <c r="A11" s="9">
         <v>5</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="10">
         <v>0.6452</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="10">
         <v>246.12100000000001</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="10">
         <v>689.80560000000003</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="10">
         <v>167.86</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="H11" s="33">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H11" s="10">
         <v>10.306800000000001</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="10">
         <v>13.6197</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="10">
         <v>0.46750000000000003</v>
       </c>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33">
+      <c r="K11" s="10"/>
+      <c r="L11" s="10">
         <v>0.64490000000000003</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="10">
         <v>257.37520000000001</v>
       </c>
-      <c r="N11" s="33">
+      <c r="N11" s="10">
         <v>711.35479999999995</v>
       </c>
-      <c r="O11" s="33">
+      <c r="O11" s="10">
         <v>153.96</v>
       </c>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="R11" s="33">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R11" s="10">
         <v>10.6457</v>
       </c>
-      <c r="S11" s="33">
+      <c r="S11" s="10">
         <v>14.077299999999999</v>
       </c>
-      <c r="T11" s="33">
+      <c r="T11" s="10">
         <v>0.46779999999999999</v>
       </c>
     </row>
